--- a/Data/serviciosHotel.xlsx
+++ b/Data/serviciosHotel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EED32-9328-AD44-BAE8-D5641B265FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB843009-3DB3-1A41-BF6D-CB2359E4C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15520" xr2:uid="{6FBAFCED-753D-BA4E-AA06-C527E4E9B31D}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
